--- a/Business/Бизнес.xlsx
+++ b/Business/Бизнес.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6_semester\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251DEBF-5CCB-4DB5-B1EA-065FBA2AF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010201C0-73BF-4D61-BA0D-DA88E12B0DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ресурсы" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="Обязательные отчисления" sheetId="7" r:id="rId7"/>
     <sheet name="Инвестиции" sheetId="8" r:id="rId8"/>
     <sheet name="Потребности" sheetId="9" r:id="rId9"/>
-    <sheet name="Кридиты" sheetId="10" r:id="rId10"/>
+    <sheet name="Кридиты" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="Источники" sheetId="11" r:id="rId11"/>
-    <sheet name="Эффективность" sheetId="12" r:id="rId12"/>
-    <sheet name="Дисконт доход" sheetId="13" r:id="rId13"/>
+    <sheet name="Дисконт доход" sheetId="13" r:id="rId12"/>
+    <sheet name="Эффективность" sheetId="12" r:id="rId13"/>
     <sheet name="Итог" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="278">
   <si>
     <t xml:space="preserve">Таблица 2. Расчет потребности в сырьевых ресурсах и транспортных расходах        
 </t>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Виды поступлений и издержек</t>
-  </si>
-  <si>
-    <t>1-ый  кв. 2022</t>
   </si>
   <si>
     <t>1 налоги, выплачиваемые из выручки</t>
@@ -767,9 +764,6 @@
   </si>
   <si>
     <t>2.5 налоги из прибыли</t>
-  </si>
-  <si>
-    <t>2.6 погашение процентов по долгосрочному кредиту</t>
   </si>
   <si>
     <t>3 сальдо потока (чистый поток наличности), ЧПН</t>
@@ -882,9 +876,6 @@
     <t>Таблица 15 Итоговая таблица</t>
   </si>
   <si>
-    <t>1 загрузка производственной мощности, %</t>
-  </si>
-  <si>
     <t>2 численнность работающих, чел.</t>
   </si>
   <si>
@@ -897,9 +888,6 @@
     <t>4.1 собственные средства</t>
   </si>
   <si>
-    <t>4.2 заемные и привлеченные средства</t>
-  </si>
-  <si>
     <t>5 выручка от реализации продукции</t>
   </si>
   <si>
@@ -928,6 +916,15 @@
   </si>
   <si>
     <t>3 кв 2023</t>
+  </si>
+  <si>
+    <t>2 month</t>
+  </si>
+  <si>
+    <t>50 month</t>
+  </si>
+  <si>
+    <t>1477 month</t>
   </si>
 </sst>
 </file>
@@ -940,7 +937,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1203,8 +1200,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri,Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,12 +1245,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B3"/>
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
@@ -1256,8 +1255,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1752,8 +1761,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1761,9 +1800,12 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2116,13 +2158,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,31 +2192,25 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="15" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2190,10 +2226,30 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="9" borderId="16" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="33" fillId="9" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="9" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2202,10 +2258,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2217,6 +2269,51 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2238,51 +2335,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2376,7 +2428,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,39 +2441,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="16" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="11">
     <cellStyle name="40% — акцент6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% — акцент3" xfId="7" builtinId="40"/>
+    <cellStyle name="40% — акцент6 2" xfId="10" xr:uid="{6A8FEAC3-0CC6-45CD-9F43-E91C741E4C9D}"/>
     <cellStyle name="Вычисление" xfId="5" builtinId="22"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Нейтральный" xfId="7" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{8D052D9D-668D-413F-AA62-6D57F12EE4D7}"/>
+    <cellStyle name="Обычный 3" xfId="8" xr:uid="{1B512F16-BF45-4E71-B39D-C9F81F0C2B2E}"/>
     <cellStyle name="Плохой" xfId="4" builtinId="27"/>
+    <cellStyle name="Примечание 2" xfId="9" xr:uid="{F4070D20-3D7B-49FC-90B4-04F115A1DF30}"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2668,17 +2728,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2695,22 +2755,22 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="175"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="180"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="12.75">
@@ -2718,34 +2778,34 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="174" t="s">
+      <c r="F3" s="180"/>
+      <c r="G3" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174" t="s">
+      <c r="H3" s="180"/>
+      <c r="I3" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="174">
+      <c r="J3" s="180"/>
+      <c r="K3" s="179">
         <v>2024</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="174">
+      <c r="L3" s="180"/>
+      <c r="M3" s="179">
         <v>2025</v>
       </c>
-      <c r="N3" s="175"/>
-      <c r="O3" s="174">
+      <c r="N3" s="180"/>
+      <c r="O3" s="179">
         <v>2026</v>
       </c>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="174">
+      <c r="P3" s="180"/>
+      <c r="Q3" s="179">
         <v>2027</v>
       </c>
-      <c r="R3" s="175"/>
+      <c r="R3" s="180"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="51">
@@ -3414,13 +3474,13 @@
       <c r="S14" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3441,22 +3501,22 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="175"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="180"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="12.75">
@@ -3464,34 +3524,34 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="174" t="s">
+      <c r="F19" s="180"/>
+      <c r="G19" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="175"/>
-      <c r="I19" s="174" t="s">
+      <c r="H19" s="180"/>
+      <c r="I19" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="175"/>
-      <c r="K19" s="174">
+      <c r="J19" s="180"/>
+      <c r="K19" s="179">
         <v>2024</v>
       </c>
-      <c r="L19" s="175"/>
-      <c r="M19" s="174">
+      <c r="L19" s="180"/>
+      <c r="M19" s="179">
         <v>2025</v>
       </c>
-      <c r="N19" s="175"/>
-      <c r="O19" s="174">
+      <c r="N19" s="180"/>
+      <c r="O19" s="179">
         <v>2026</v>
       </c>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="174">
+      <c r="P19" s="180"/>
+      <c r="Q19" s="179">
         <v>2027</v>
       </c>
-      <c r="R19" s="175"/>
+      <c r="R19" s="180"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="51">
@@ -4081,6 +4141,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="E18:R18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -4090,15 +4159,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="E18:R18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4123,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1">
       <c r="A1" s="126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -4134,29 +4194,29 @@
       <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="242" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="238" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="240"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="244"/>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="237"/>
+      <c r="A3" s="241"/>
       <c r="B3" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="D3" s="131" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="131" t="s">
-        <v>171</v>
       </c>
       <c r="E3" s="131">
         <v>2024</v>
@@ -4199,7 +4259,7 @@
     </row>
     <row r="5" spans="1:8" ht="26.25">
       <c r="A5" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="138">
         <v>0</v>
@@ -4225,7 +4285,7 @@
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="138">
         <v>0</v>
@@ -4251,7 +4311,7 @@
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="138">
         <v>0</v>
@@ -4277,7 +4337,7 @@
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="138">
         <v>0</v>
@@ -4303,7 +4363,7 @@
     </row>
     <row r="9" spans="1:8" ht="15">
       <c r="A9" s="137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="138">
         <v>0</v>
@@ -4329,7 +4389,7 @@
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="138">
         <v>0</v>
@@ -4355,7 +4415,7 @@
     </row>
     <row r="11" spans="1:8" ht="26.25">
       <c r="A11" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="138">
         <v>0</v>
@@ -4381,7 +4441,7 @@
     </row>
     <row r="12" spans="1:8" ht="26.25">
       <c r="A12" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="138">
         <v>0</v>
@@ -4430,7 +4490,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickBot="1">
       <c r="A1" s="126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="143"/>
@@ -4438,10 +4498,10 @@
       <c r="E1" s="135"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A2" s="210" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="241" t="s">
+      <c r="A2" s="214" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="245" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="143"/>
@@ -4449,8 +4509,8 @@
       <c r="E2" s="135"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="237"/>
-      <c r="B3" s="242"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="246"/>
       <c r="C3" s="143"/>
       <c r="D3" s="135"/>
       <c r="E3" s="135"/>
@@ -4468,7 +4528,7 @@
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="145"/>
       <c r="C5" s="143"/>
@@ -4477,50 +4537,50 @@
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="146">
         <f>B8-B7</f>
         <v>65130.033000000003</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="138">
         <v>0</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="135"/>
       <c r="E7" s="135"/>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="146">
         <f>Инвестиции!B13</f>
         <v>65130.033000000003</v>
       </c>
       <c r="C8" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="143" t="s">
         <v>191</v>
-      </c>
-      <c r="D8" s="143" t="s">
-        <v>192</v>
       </c>
       <c r="E8" s="135"/>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="142">
         <v>1</v>
@@ -4531,7 +4591,7 @@
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="149">
         <v>1</v>
@@ -4542,7 +4602,7 @@
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="149">
         <v>0</v>
@@ -4561,404 +4621,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36368A-EF28-4F43-97F5-45B46788E13F}">
-  <dimension ref="A1:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D276416-A74E-45CB-A18F-94AE77F626C3}">
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="20.25" thickBot="1">
-      <c r="A1" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1">
-      <c r="A2" s="210" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="246" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="212" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="246" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-    </row>
-    <row r="3" spans="1:18" ht="26.25">
-      <c r="A3" s="237"/>
-      <c r="B3" s="245"/>
-      <c r="C3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="168">
-        <v>2024</v>
-      </c>
-      <c r="G3" s="168">
-        <v>2025</v>
-      </c>
-      <c r="H3" s="168">
-        <v>2026</v>
-      </c>
-      <c r="I3" s="168">
-        <v>2027</v>
-      </c>
-      <c r="J3" s="245"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-    </row>
-    <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="49">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48">
-        <v>2</v>
-      </c>
-      <c r="C4" s="48">
-        <v>3</v>
-      </c>
-      <c r="D4" s="48">
-        <v>4</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48">
-        <v>6</v>
-      </c>
-      <c r="I4" s="48">
-        <v>7</v>
-      </c>
-      <c r="J4" s="48">
-        <v>8</v>
-      </c>
-      <c r="K4" s="143"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-    </row>
-    <row r="5" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A5" s="141" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-    </row>
-    <row r="6" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1">
-      <c r="A7" s="141" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-    </row>
-    <row r="8" spans="1:18" ht="47.25" customHeight="1">
-      <c r="A8" s="141" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-    </row>
-    <row r="9" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A9" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-    </row>
-    <row r="10" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A10" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="148" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-    </row>
-    <row r="11" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A11" s="141" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="133" t="s">
-        <v>210</v>
-      </c>
-      <c r="K11" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-    </row>
-    <row r="12" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A12" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-    </row>
-    <row r="13" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="148" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-    </row>
-    <row r="14" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A14" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="148" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D276416-A74E-45CB-A18F-94AE77F626C3}">
-  <dimension ref="A1:S42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" thickBot="1">
       <c r="A1" s="126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -4980,20 +4664,20 @@
       <c r="S1" s="135"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="252" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="212" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="246" t="s">
-        <v>219</v>
       </c>
       <c r="J2" s="143"/>
       <c r="K2" s="135"/>
@@ -5006,30 +4690,30 @@
       <c r="R2" s="135"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="26.25">
-      <c r="A3" s="237"/>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="241"/>
       <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="168">
+      <c r="E3" s="162">
         <v>2024</v>
       </c>
-      <c r="F3" s="168">
+      <c r="F3" s="162">
         <v>2025</v>
       </c>
-      <c r="G3" s="168">
+      <c r="G3" s="162">
         <v>2026</v>
       </c>
-      <c r="H3" s="168">
+      <c r="H3" s="162">
         <v>2027</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="253"/>
       <c r="J3" s="143"/>
       <c r="K3" s="135"/>
       <c r="L3" s="135"/>
@@ -5077,17 +4761,17 @@
       <c r="S4" s="135"/>
     </row>
     <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="242"/>
+      <c r="A5" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="248"/>
       <c r="J5" s="143"/>
       <c r="K5" s="135"/>
       <c r="L5" s="135"/>
@@ -5101,16 +4785,16 @@
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="144" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
+        <v>220</v>
+      </c>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
       <c r="J6" s="143"/>
       <c r="K6" s="135"/>
       <c r="L6" s="135"/>
@@ -5124,16 +4808,40 @@
     </row>
     <row r="7" spans="1:19" ht="15">
       <c r="A7" s="144" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
+        <v>221</v>
+      </c>
+      <c r="B7" s="138">
+        <f>Реализация!C7</f>
+        <v>45000</v>
+      </c>
+      <c r="C7" s="138">
+        <f>Реализация!D7</f>
+        <v>45000</v>
+      </c>
+      <c r="D7" s="138">
+        <f>Реализация!E7</f>
+        <v>60000</v>
+      </c>
+      <c r="E7" s="138">
+        <f>Реализация!F7</f>
+        <v>194400</v>
+      </c>
+      <c r="F7" s="138">
+        <f>Реализация!G7</f>
+        <v>262440.00000000006</v>
+      </c>
+      <c r="G7" s="138">
+        <f>Реализация!H7</f>
+        <v>302330.88000000006</v>
+      </c>
+      <c r="H7" s="138">
+        <f>Реализация!I7</f>
+        <v>346924.6848000001</v>
+      </c>
+      <c r="I7" s="170">
+        <f>SUM(B7:H7)</f>
+        <v>1256095.5648000003</v>
+      </c>
       <c r="J7" s="143"/>
       <c r="K7" s="135"/>
       <c r="L7" s="135"/>
@@ -5147,16 +4855,16 @@
     </row>
     <row r="8" spans="1:19" ht="15">
       <c r="A8" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="242"/>
+        <v>222</v>
+      </c>
+      <c r="B8" s="254"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="246"/>
       <c r="J8" s="143"/>
       <c r="K8" s="135"/>
       <c r="L8" s="135"/>
@@ -5170,16 +4878,40 @@
     </row>
     <row r="9" spans="1:19" ht="15">
       <c r="A9" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
+        <v>223</v>
+      </c>
+      <c r="B9" s="146">
+        <f>SUM(B10:B14)</f>
+        <v>138830.16199999998</v>
+      </c>
+      <c r="C9" s="146">
+        <f t="shared" ref="C9:I9" si="0">SUM(C10:C14)</f>
+        <v>123058.06200000001</v>
+      </c>
+      <c r="D9" s="146">
+        <f t="shared" si="0"/>
+        <v>108787.38333333333</v>
+      </c>
+      <c r="E9" s="146">
+        <f t="shared" si="0"/>
+        <v>159269.14497333334</v>
+      </c>
+      <c r="F9" s="146">
+        <f t="shared" si="0"/>
+        <v>189632.67276453337</v>
+      </c>
+      <c r="G9" s="146">
+        <f t="shared" si="0"/>
+        <v>203245.30242902937</v>
+      </c>
+      <c r="H9" s="146">
+        <f t="shared" si="0"/>
+        <v>221885.95417168507</v>
+      </c>
+      <c r="I9" s="171">
+        <f t="shared" si="0"/>
+        <v>1062508.6816719144</v>
+      </c>
       <c r="J9" s="143"/>
       <c r="K9" s="135"/>
       <c r="L9" s="135"/>
@@ -5193,18 +4925,41 @@
     </row>
     <row r="10" spans="1:19" ht="45">
       <c r="A10" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="138">
+        <f>Амортизация!C20</f>
+        <v>13700</v>
+      </c>
+      <c r="C10" s="138">
+        <f>Амортизация!D20</f>
+        <v>13700</v>
+      </c>
+      <c r="D10" s="138">
+        <f>Амортизация!E20</f>
+        <v>13700</v>
+      </c>
+      <c r="E10" s="138">
+        <f>Амортизация!F20</f>
+        <v>13700</v>
+      </c>
+      <c r="F10" s="138">
+        <f>Амортизация!G20</f>
+        <v>13700</v>
+      </c>
+      <c r="G10" s="138">
+        <f>Амортизация!H20</f>
+        <v>13700</v>
+      </c>
+      <c r="H10" s="138">
+        <f>Амортизация!I20</f>
+        <v>13700</v>
+      </c>
+      <c r="I10" s="170">
+        <v>13700</v>
+      </c>
+      <c r="J10" s="148" t="s">
         <v>225</v>
-      </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="148" t="s">
-        <v>226</v>
       </c>
       <c r="K10" s="135"/>
       <c r="L10" s="135"/>
@@ -5218,18 +4973,42 @@
     </row>
     <row r="11" spans="1:19" ht="30">
       <c r="A11" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="168">
+        <f>Потребности!B14</f>
+        <v>51430.033000000003</v>
+      </c>
+      <c r="C11" s="168">
+        <f>Потребности!C14</f>
+        <v>36416.733</v>
+      </c>
+      <c r="D11" s="168">
+        <f>Потребности!D14</f>
+        <v>20697.350333333332</v>
+      </c>
+      <c r="E11" s="168">
+        <f>Потребности!E14</f>
+        <v>45257.728293333334</v>
+      </c>
+      <c r="F11" s="168">
+        <f>Потребности!F14</f>
+        <v>57333.248910133349</v>
+      </c>
+      <c r="G11" s="168">
+        <f>Потребности!G14</f>
+        <v>62521.647162277353</v>
+      </c>
+      <c r="H11" s="168">
+        <f>Потребности!H14</f>
+        <v>71324.092398792884</v>
+      </c>
+      <c r="I11" s="171">
+        <f>SUM(B11:H11)</f>
+        <v>344980.83309787023</v>
+      </c>
+      <c r="J11" s="148" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="148" t="s">
-        <v>228</v>
       </c>
       <c r="K11" s="135"/>
       <c r="L11" s="135"/>
@@ -5243,18 +5022,42 @@
     </row>
     <row r="12" spans="1:19" ht="30">
       <c r="A12" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="146">
+        <f>Инвестиции!B13-Издержки!B27</f>
+        <v>64445.033000000003</v>
+      </c>
+      <c r="C12" s="146">
+        <f>Инвестиции!B13-Издержки!C27</f>
+        <v>63760.033000000003</v>
+      </c>
+      <c r="D12" s="146">
+        <f>Инвестиции!B13-Издержки!D27</f>
+        <v>62390.033000000003</v>
+      </c>
+      <c r="E12" s="146">
+        <f>Инвестиции!B13-Издержки!E27</f>
+        <v>59650.033000000003</v>
+      </c>
+      <c r="F12" s="146">
+        <f>Инвестиции!B13-Издержки!F27</f>
+        <v>56910.033000000003</v>
+      </c>
+      <c r="G12" s="146">
+        <f>Инвестиции!B13-Издержки!G27</f>
+        <v>54170.033000000003</v>
+      </c>
+      <c r="H12" s="146">
+        <f>Инвестиции!B13-Издержки!H27</f>
+        <v>51430.033000000003</v>
+      </c>
+      <c r="I12" s="171">
+        <f>SUM(B12:H12)</f>
+        <v>412755.23100000003</v>
+      </c>
+      <c r="J12" s="148" t="s">
         <v>229</v>
-      </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="148" t="s">
-        <v>230</v>
       </c>
       <c r="K12" s="135"/>
       <c r="L12" s="135"/>
@@ -5268,16 +5071,40 @@
     </row>
     <row r="13" spans="1:19" ht="15">
       <c r="A13" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
+        <v>230</v>
+      </c>
+      <c r="B13" s="146">
+        <f>'Обязательные отчисления'!B5</f>
+        <v>9000</v>
+      </c>
+      <c r="C13" s="146">
+        <f>'Обязательные отчисления'!C5</f>
+        <v>9000</v>
+      </c>
+      <c r="D13" s="146">
+        <f>'Обязательные отчисления'!D5</f>
+        <v>12000</v>
+      </c>
+      <c r="E13" s="146">
+        <f>'Обязательные отчисления'!E5</f>
+        <v>38880</v>
+      </c>
+      <c r="F13" s="146">
+        <f>'Обязательные отчисления'!F5</f>
+        <v>52488.000000000015</v>
+      </c>
+      <c r="G13" s="146">
+        <f>'Обязательные отчисления'!G5</f>
+        <v>60466.176000000014</v>
+      </c>
+      <c r="H13" s="146">
+        <f>'Обязательные отчисления'!H5</f>
+        <v>69384.936960000021</v>
+      </c>
+      <c r="I13" s="171">
+        <f>SUM(B13:H13)</f>
+        <v>251219.11296000006</v>
+      </c>
       <c r="J13" s="143"/>
       <c r="K13" s="135"/>
       <c r="L13" s="135"/>
@@ -5291,16 +5118,40 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
+        <v>231</v>
+      </c>
+      <c r="B14" s="146">
+        <f>'Обязательные отчисления'!B6</f>
+        <v>255.09600000000012</v>
+      </c>
+      <c r="C14" s="146">
+        <f>'Обязательные отчисления'!C6</f>
+        <v>181.29600000000013</v>
+      </c>
+      <c r="D14" s="146">
+        <f>'Обязательные отчисления'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="146">
+        <f>'Обязательные отчисления'!E6</f>
+        <v>1781.3836799999967</v>
+      </c>
+      <c r="F14" s="146">
+        <f>'Обязательные отчисления'!F6</f>
+        <v>9201.3908544000078</v>
+      </c>
+      <c r="G14" s="146">
+        <f>'Обязательные отчисления'!G6</f>
+        <v>12387.446266752006</v>
+      </c>
+      <c r="H14" s="146">
+        <f>'Обязательные отчисления'!H6</f>
+        <v>16046.891812892165</v>
+      </c>
+      <c r="I14" s="171">
+        <f>SUM(B14:H14)</f>
+        <v>39853.504614044177</v>
+      </c>
       <c r="J14" s="143"/>
       <c r="K14" s="135"/>
       <c r="L14" s="135"/>
@@ -5314,17 +5165,43 @@
     </row>
     <row r="15" spans="1:19" ht="30">
       <c r="A15" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="146">
+        <f>B7-B9</f>
+        <v>-93830.161999999982</v>
+      </c>
+      <c r="C15" s="146">
+        <f t="shared" ref="C15:I15" si="1">C7-C9</f>
+        <v>-78058.062000000005</v>
+      </c>
+      <c r="D15" s="146">
+        <f t="shared" si="1"/>
+        <v>-48787.383333333331</v>
+      </c>
+      <c r="E15" s="146">
+        <f t="shared" si="1"/>
+        <v>35130.855026666657</v>
+      </c>
+      <c r="F15" s="146">
+        <f t="shared" si="1"/>
+        <v>72807.327235466684</v>
+      </c>
+      <c r="G15" s="146">
+        <f t="shared" si="1"/>
+        <v>99085.577570970694</v>
+      </c>
+      <c r="H15" s="146">
+        <f t="shared" si="1"/>
+        <v>125038.73062831504</v>
+      </c>
+      <c r="I15" s="171">
+        <f t="shared" si="1"/>
+        <v>193586.88312808587</v>
+      </c>
+      <c r="J15" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="143"/>
       <c r="K15" s="135"/>
       <c r="L15" s="135"/>
       <c r="M15" s="135"/>
@@ -5335,21 +5212,40 @@
       <c r="R15" s="135"/>
       <c r="S15" s="135"/>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="148" t="s">
-        <v>235</v>
-      </c>
+      <c r="B16" s="146">
+        <f>B15</f>
+        <v>-93830.161999999982</v>
+      </c>
+      <c r="C16" s="146">
+        <f>B15+C15</f>
+        <v>-171888.22399999999</v>
+      </c>
+      <c r="D16" s="146">
+        <f>SUM(B15:E15)</f>
+        <v>-185544.75230666666</v>
+      </c>
+      <c r="E16" s="146">
+        <f>B15+E15</f>
+        <v>-58699.306973333325</v>
+      </c>
+      <c r="F16" s="146">
+        <f>SUM(B15:F15)</f>
+        <v>-112737.42507119998</v>
+      </c>
+      <c r="G16" s="146">
+        <f>SUM(B15:G15)</f>
+        <v>-13651.847500229283</v>
+      </c>
+      <c r="H16" s="146">
+        <f>SUM(B15:H15)</f>
+        <v>111386.88312808576</v>
+      </c>
+      <c r="I16" s="172"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="135"/>
       <c r="L16" s="135"/>
       <c r="M16" s="135"/>
@@ -5360,18 +5256,18 @@
       <c r="R16" s="135"/>
       <c r="S16" s="135"/>
     </row>
-    <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="139"/>
+    <row r="17" spans="1:19" ht="29.25">
+      <c r="A17" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="247"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="248"/>
       <c r="J17" s="143"/>
       <c r="K17" s="135"/>
       <c r="L17" s="135"/>
@@ -5383,18 +5279,32 @@
       <c r="R17" s="135"/>
       <c r="S17" s="135"/>
     </row>
-    <row r="18" spans="1:19" ht="30">
+    <row r="18" spans="1:19" ht="15">
       <c r="A18" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="249"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="242"/>
+        <v>236</v>
+      </c>
+      <c r="B18" s="154">
+        <v>0</v>
+      </c>
+      <c r="C18" s="154">
+        <v>1</v>
+      </c>
+      <c r="D18" s="154">
+        <v>2</v>
+      </c>
+      <c r="E18" s="154">
+        <v>3</v>
+      </c>
+      <c r="F18" s="154">
+        <v>4</v>
+      </c>
+      <c r="G18" s="154">
+        <v>5</v>
+      </c>
+      <c r="H18" s="154">
+        <v>6</v>
+      </c>
+      <c r="I18" s="139"/>
       <c r="J18" s="143"/>
       <c r="K18" s="135"/>
       <c r="L18" s="135"/>
@@ -5406,29 +5316,35 @@
       <c r="R18" s="135"/>
       <c r="S18" s="135"/>
     </row>
-    <row r="19" spans="1:19" ht="15">
-      <c r="A19" s="141" t="s">
+    <row r="19" spans="1:19" ht="43.5">
+      <c r="A19" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="176">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C19" s="176">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D19" s="176">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="E19" s="177">
+        <v>0.79718999999999995</v>
+      </c>
+      <c r="F19" s="177">
+        <v>0.71177999999999997</v>
+      </c>
+      <c r="G19" s="177">
+        <v>0.63551800000000003</v>
+      </c>
+      <c r="H19" s="174">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="I19" s="172"/>
+      <c r="J19" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="154">
-        <v>0</v>
-      </c>
-      <c r="C19" s="154">
-        <v>1</v>
-      </c>
-      <c r="D19" s="154">
-        <v>2</v>
-      </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154">
-        <v>3</v>
-      </c>
-      <c r="H19" s="154">
-        <v>4</v>
-      </c>
-      <c r="I19" s="139"/>
-      <c r="J19" s="143"/>
       <c r="K19" s="135"/>
       <c r="L19" s="135"/>
       <c r="M19" s="135"/>
@@ -5439,23 +5355,43 @@
       <c r="R19" s="135"/>
       <c r="S19" s="135"/>
     </row>
-    <row r="20" spans="1:19" ht="43.5">
-      <c r="A20" s="155" t="s">
+    <row r="20" spans="1:19" ht="15">
+      <c r="A20" s="141" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="154">
-        <v>1</v>
-      </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="148" t="s">
-        <v>240</v>
-      </c>
+      <c r="B20" s="146">
+        <f>B7*B19</f>
+        <v>43740</v>
+      </c>
+      <c r="C20" s="146">
+        <f t="shared" ref="C20:H20" si="2">C7*C19</f>
+        <v>43740</v>
+      </c>
+      <c r="D20" s="146">
+        <f t="shared" si="2"/>
+        <v>56694</v>
+      </c>
+      <c r="E20" s="146">
+        <f t="shared" si="2"/>
+        <v>154973.736</v>
+      </c>
+      <c r="F20" s="146">
+        <f t="shared" si="2"/>
+        <v>186799.54320000004</v>
+      </c>
+      <c r="G20" s="146">
+        <f t="shared" si="2"/>
+        <v>192136.71619584004</v>
+      </c>
+      <c r="H20" s="146">
+        <f t="shared" si="2"/>
+        <v>196845.06615552006</v>
+      </c>
+      <c r="I20" s="171">
+        <f>SUM(B20:H20)</f>
+        <v>874929.06155136018</v>
+      </c>
+      <c r="J20" s="143"/>
       <c r="K20" s="135"/>
       <c r="L20" s="135"/>
       <c r="M20" s="135"/>
@@ -5468,16 +5404,40 @@
     </row>
     <row r="21" spans="1:19" ht="15">
       <c r="A21" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
+        <v>240</v>
+      </c>
+      <c r="B21" s="146">
+        <f>B9*B19</f>
+        <v>134942.91746399997</v>
+      </c>
+      <c r="C21" s="146">
+        <f t="shared" ref="C21:H21" si="3">C9*C19</f>
+        <v>119612.436264</v>
+      </c>
+      <c r="D21" s="146">
+        <f t="shared" si="3"/>
+        <v>102793.19851166666</v>
+      </c>
+      <c r="E21" s="146">
+        <f t="shared" si="3"/>
+        <v>126967.7696812916</v>
+      </c>
+      <c r="F21" s="146">
+        <f t="shared" si="3"/>
+        <v>134976.74382033956</v>
+      </c>
+      <c r="G21" s="146">
+        <f t="shared" si="3"/>
+        <v>129166.04810909189</v>
+      </c>
+      <c r="H21" s="146">
+        <f t="shared" si="3"/>
+        <v>125898.09039701411</v>
+      </c>
+      <c r="I21" s="171">
+        <f>SUM(B21:H21)</f>
+        <v>874357.20424740389</v>
+      </c>
       <c r="J21" s="143"/>
       <c r="K21" s="135"/>
       <c r="L21" s="135"/>
@@ -5489,18 +5449,42 @@
       <c r="R21" s="135"/>
       <c r="S21" s="135"/>
     </row>
-    <row r="22" spans="1:19" ht="15">
+    <row r="22" spans="1:19" ht="30">
       <c r="A22" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
+        <v>241</v>
+      </c>
+      <c r="B22" s="138">
+        <f>B10*B19</f>
+        <v>13316.4</v>
+      </c>
+      <c r="C22" s="138">
+        <f t="shared" ref="C22:H22" si="4">C10*C19</f>
+        <v>13316.4</v>
+      </c>
+      <c r="D22" s="138">
+        <f t="shared" si="4"/>
+        <v>12945.13</v>
+      </c>
+      <c r="E22" s="138">
+        <f t="shared" si="4"/>
+        <v>10921.502999999999</v>
+      </c>
+      <c r="F22" s="138">
+        <f t="shared" si="4"/>
+        <v>9751.3860000000004</v>
+      </c>
+      <c r="G22" s="138">
+        <f t="shared" si="4"/>
+        <v>8706.5966000000008</v>
+      </c>
+      <c r="H22" s="138">
+        <f t="shared" si="4"/>
+        <v>7773.38</v>
+      </c>
+      <c r="I22" s="170">
+        <f>SUM(B22:H22)</f>
+        <v>76730.795599999998</v>
+      </c>
       <c r="J22" s="143"/>
       <c r="K22" s="135"/>
       <c r="L22" s="135"/>
@@ -5512,19 +5496,45 @@
       <c r="R22" s="135"/>
       <c r="S22" s="135"/>
     </row>
-    <row r="23" spans="1:19" ht="30">
+    <row r="23" spans="1:19" ht="15">
       <c r="A23" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="146">
+        <f>B20-B21</f>
+        <v>-91202.917463999969</v>
+      </c>
+      <c r="C23" s="146">
+        <f t="shared" ref="C23:H23" si="5">C20-C21</f>
+        <v>-75872.436264000004</v>
+      </c>
+      <c r="D23" s="146">
+        <f t="shared" si="5"/>
+        <v>-46099.198511666662</v>
+      </c>
+      <c r="E23" s="146">
+        <f t="shared" si="5"/>
+        <v>28005.966318708408</v>
+      </c>
+      <c r="F23" s="146">
+        <f t="shared" si="5"/>
+        <v>51822.799379660486</v>
+      </c>
+      <c r="G23" s="146">
+        <f t="shared" si="5"/>
+        <v>62970.668086748148</v>
+      </c>
+      <c r="H23" s="146">
+        <f t="shared" si="5"/>
+        <v>70946.975758505956</v>
+      </c>
+      <c r="I23" s="171">
+        <f>SUM(B23:H23)</f>
+        <v>571.85730395636347</v>
+      </c>
+      <c r="J23" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="143"/>
       <c r="K23" s="135"/>
       <c r="L23" s="135"/>
       <c r="M23" s="135"/>
@@ -5535,21 +5545,43 @@
       <c r="R23" s="135"/>
       <c r="S23" s="135"/>
     </row>
-    <row r="24" spans="1:19" ht="15">
+    <row r="24" spans="1:19" ht="30">
       <c r="A24" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147" t="s">
-        <v>245</v>
-      </c>
+      <c r="B24" s="146">
+        <f>B23</f>
+        <v>-91202.917463999969</v>
+      </c>
+      <c r="C24" s="146">
+        <f>B23+C23</f>
+        <v>-167075.35372799996</v>
+      </c>
+      <c r="D24" s="146">
+        <f>D23+C24</f>
+        <v>-213174.55223966663</v>
+      </c>
+      <c r="E24" s="146">
+        <f>D24+E23</f>
+        <v>-185168.58592095823</v>
+      </c>
+      <c r="F24" s="146">
+        <f>E24+F23</f>
+        <v>-133345.78654129774</v>
+      </c>
+      <c r="G24" s="146">
+        <f>F24+G23</f>
+        <v>-70375.118454549593</v>
+      </c>
+      <c r="H24" s="146">
+        <f>G24+H23</f>
+        <v>571.85730395636347</v>
+      </c>
+      <c r="I24" s="171">
+        <f>SUM(B24:H24)</f>
+        <v>-859770.45704451576</v>
+      </c>
+      <c r="J24" s="143"/>
       <c r="K24" s="135"/>
       <c r="L24" s="135"/>
       <c r="M24" s="135"/>
@@ -5560,19 +5592,17 @@
       <c r="R24" s="135"/>
       <c r="S24" s="135"/>
     </row>
-    <row r="25" spans="1:19" ht="30">
-      <c r="A25" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="143"/>
+    <row r="25" spans="1:19">
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="135"/>
       <c r="L25" s="135"/>
       <c r="M25" s="135"/>
@@ -5604,10 +5634,14 @@
       <c r="R26" s="135"/>
       <c r="S26" s="135"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+    <row r="27" spans="1:19" ht="15">
+      <c r="A27" s="167" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="160"/>
+      <c r="C27" s="148" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" s="135"/>
       <c r="E27" s="135"/>
       <c r="F27" s="135"/>
@@ -5626,10 +5660,13 @@
       <c r="S27" s="135"/>
     </row>
     <row r="28" spans="1:19" ht="15">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="165"/>
+      <c r="B28" s="139">
+        <f>H16/12</f>
+        <v>9282.2402606738124</v>
+      </c>
       <c r="C28" s="148" t="s">
         <v>248</v>
       </c>
@@ -5651,10 +5688,13 @@
       <c r="S28" s="135"/>
     </row>
     <row r="29" spans="1:19" ht="15">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="146">
+        <f>G16+B28+B28</f>
+        <v>4912.6330211183413</v>
+      </c>
       <c r="C29" s="148" t="s">
         <v>250</v>
       </c>
@@ -5669,17 +5709,21 @@
       <c r="L29" s="135"/>
       <c r="M29" s="135"/>
       <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
+      <c r="O29" s="135" t="s">
+        <v>275</v>
+      </c>
       <c r="P29" s="135"/>
       <c r="Q29" s="135"/>
       <c r="R29" s="135"/>
       <c r="S29" s="135"/>
     </row>
     <row r="30" spans="1:19" ht="15">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="139" t="s">
+        <v>276</v>
+      </c>
       <c r="C30" s="148" t="s">
         <v>252</v>
       </c>
@@ -5701,7 +5745,7 @@
       <c r="S30" s="135"/>
     </row>
     <row r="31" spans="1:19" ht="15">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="156" t="s">
         <v>253</v>
       </c>
       <c r="B31" s="139"/>
@@ -5726,13 +5770,14 @@
       <c r="S31" s="135"/>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="157" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="148" t="s">
-        <v>256</v>
-      </c>
+      <c r="A32" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="139">
+        <f>H24/12</f>
+        <v>47.654775329696953</v>
+      </c>
+      <c r="C32" s="143"/>
       <c r="D32" s="135"/>
       <c r="E32" s="135"/>
       <c r="F32" s="135"/>
@@ -5751,10 +5796,13 @@
       <c r="S32" s="135"/>
     </row>
     <row r="33" spans="1:19" ht="15">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="B33" s="139"/>
+      <c r="B33" s="146">
+        <f>G24+(B32*1477)</f>
+        <v>10.98470741280471</v>
+      </c>
       <c r="C33" s="143"/>
       <c r="D33" s="135"/>
       <c r="E33" s="135"/>
@@ -5774,10 +5822,12 @@
       <c r="S33" s="135"/>
     </row>
     <row r="34" spans="1:19" ht="15">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="139"/>
+      <c r="B34" s="139" t="s">
+        <v>277</v>
+      </c>
       <c r="C34" s="143"/>
       <c r="D34" s="135"/>
       <c r="E34" s="135"/>
@@ -5797,10 +5847,8 @@
       <c r="S34" s="135"/>
     </row>
     <row r="35" spans="1:19" ht="15">
-      <c r="A35" s="157" t="s">
-        <v>253</v>
-      </c>
-      <c r="B35" s="139"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="143"/>
       <c r="D35" s="135"/>
       <c r="E35" s="135"/>
@@ -5841,9 +5889,14 @@
       <c r="S36" s="135"/>
     </row>
     <row r="37" spans="1:19" ht="15">
-      <c r="A37" s="143"/>
+      <c r="A37" s="143" t="s">
+        <v>255</v>
+      </c>
       <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
+      <c r="C37" s="143">
+        <f>0.12+(H19-0.12) *I24/(I24-B24)</f>
+        <v>0.62049121602463786</v>
+      </c>
       <c r="D37" s="135"/>
       <c r="E37" s="135"/>
       <c r="F37" s="135"/>
@@ -5862,8 +5915,8 @@
       <c r="S37" s="135"/>
     </row>
     <row r="38" spans="1:19" ht="15">
-      <c r="A38" s="143" t="s">
-        <v>257</v>
+      <c r="A38" s="148" t="s">
+        <v>256</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -5886,7 +5939,7 @@
     </row>
     <row r="39" spans="1:19" ht="15">
       <c r="A39" s="148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="143"/>
       <c r="C39" s="143"/>
@@ -5909,7 +5962,7 @@
     </row>
     <row r="40" spans="1:19" ht="15">
       <c r="A40" s="148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="143"/>
       <c r="C40" s="143"/>
@@ -5932,7 +5985,7 @@
     </row>
     <row r="41" spans="1:19" ht="15">
       <c r="A41" s="148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="143"/>
       <c r="C41" s="143"/>
@@ -5953,32 +6006,9 @@
       <c r="R41" s="135"/>
       <c r="S41" s="135"/>
     </row>
-    <row r="42" spans="1:19" ht="15">
-      <c r="A42" s="148" t="s">
-        <v>261</v>
-      </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="135"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="135"/>
-      <c r="S42" s="135"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:I3"/>
@@ -5986,26 +6016,491 @@
     <mergeCell ref="B8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36368A-EF28-4F43-97F5-45B46788E13F}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="20.25" thickBot="1">
+      <c r="A1" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A2" s="214" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="252" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="143"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+    </row>
+    <row r="3" spans="1:18" ht="26.25">
+      <c r="A3" s="241"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="162">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="162">
+        <v>2025</v>
+      </c>
+      <c r="H3" s="162">
+        <v>2026</v>
+      </c>
+      <c r="I3" s="162">
+        <v>2027</v>
+      </c>
+      <c r="J3" s="253"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48">
+        <v>3</v>
+      </c>
+      <c r="D4" s="48">
+        <v>4</v>
+      </c>
+      <c r="E4" s="48">
+        <v>5</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48">
+        <v>6</v>
+      </c>
+      <c r="I4" s="48">
+        <v>7</v>
+      </c>
+      <c r="J4" s="48">
+        <v>8</v>
+      </c>
+      <c r="K4" s="143"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" customHeight="1">
+      <c r="A5" s="141" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="256"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+    </row>
+    <row r="6" spans="1:18" ht="32.25" customHeight="1">
+      <c r="A6" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="259">
+        <v>50</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1">
+      <c r="A7" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="259">
+        <v>1477</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+    </row>
+    <row r="8" spans="1:18" ht="47.25" customHeight="1">
+      <c r="A8" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="259">
+        <f>'Дисконт доход'!I24</f>
+        <v>-859770.45704451576</v>
+      </c>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+    </row>
+    <row r="9" spans="1:18" ht="30.75" customHeight="1">
+      <c r="A9" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="150">
+        <f>'Дисконт доход'!C37</f>
+        <v>0.62049121602463786</v>
+      </c>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+    </row>
+    <row r="10" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A10" s="141" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="150">
+        <f>(B8+'Дисконт доход'!I22)/'Дисконт доход'!I22</f>
+        <v>-10.205024662151631</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+    </row>
+    <row r="11" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A11" s="141" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="259">
+        <f>(ЧП!B10*100)/ЧП!B9</f>
+        <v>28.793594808807679</v>
+      </c>
+      <c r="D11" s="259">
+        <f>(ЧП!C10*100)/ЧП!C9</f>
+        <v>31.091237947307445</v>
+      </c>
+      <c r="E11" s="259">
+        <f>(ЧП!D10*100)/ЧП!D9</f>
+        <v>197.35099203308152</v>
+      </c>
+      <c r="F11" s="259">
+        <f>(ЧП!E10*100)/ЧП!E9</f>
+        <v>28.232586123934812</v>
+      </c>
+      <c r="G11" s="259">
+        <f>(ЧП!F10*100)/ЧП!F9</f>
+        <v>18.124781313127986</v>
+      </c>
+      <c r="H11" s="259">
+        <f>(ЧП!G10*100)/ЧП!G9</f>
+        <v>16.782592636230518</v>
+      </c>
+      <c r="I11" s="259">
+        <f>(ЧП!H10*100)/ЧП!H9</f>
+        <v>15.596125426216313</v>
+      </c>
+      <c r="J11" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+    </row>
+    <row r="12" spans="1:18" ht="26.25" customHeight="1">
+      <c r="A12" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="256"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+    </row>
+    <row r="13" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A13" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="133"/>
+      <c r="C13" s="151">
+        <f>ЧП!B14/ЧП!B5</f>
+        <v>6.5605325333333353E-2</v>
+      </c>
+      <c r="D13" s="151">
+        <f>ЧП!C14/ЧП!C5</f>
+        <v>5.8131992000000028E-2</v>
+      </c>
+      <c r="E13" s="151">
+        <f>ЧП!D14/ЧП!D5</f>
+        <v>-0.26394006666666664</v>
+      </c>
+      <c r="F13" s="151">
+        <f>ЧП!E14/ЧП!E5</f>
+        <v>8.8971663967078146E-2</v>
+      </c>
+      <c r="G13" s="151">
+        <f>ЧП!F14/ЧП!F5</f>
+        <v>0.2531616036930957</v>
+      </c>
+      <c r="H13" s="151">
+        <f>ЧП!G14/ЧП!G5</f>
+        <v>0.29022789441512986</v>
+      </c>
+      <c r="I13" s="151">
+        <f>ЧП!H14/ЧП!H5</f>
+        <v>0.32372886456939481</v>
+      </c>
+      <c r="J13" s="133"/>
+      <c r="K13" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+    </row>
+    <row r="14" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A14" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="133"/>
+      <c r="C14" s="151">
+        <f>ЧП!B14/Инвестиции!B13</f>
+        <v>4.5328391588562549E-2</v>
+      </c>
+      <c r="D14" s="151">
+        <f>ЧП!C14/Инвестиции!B13</f>
+        <v>4.0164875089192746E-2</v>
+      </c>
+      <c r="E14" s="151">
+        <f>ЧП!D14/Инвестиции!B13</f>
+        <v>-0.24315056004961641</v>
+      </c>
+      <c r="F14" s="151">
+        <f>ЧП!E14/Инвестиции!B13</f>
+        <v>0.26556245526852396</v>
+      </c>
+      <c r="G14" s="151">
+        <f>ЧП!F14/Инвестиции!B13</f>
+        <v>1.0201089760420672</v>
+      </c>
+      <c r="H14" s="151">
+        <f>ЧП!G14/Инвестиции!B13</f>
+        <v>1.3472257064428834</v>
+      </c>
+      <c r="I14" s="151">
+        <f>ЧП!H14/Инвестиции!B13</f>
+        <v>1.7243893351228488</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="148" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180DD25-E12C-44E6-B0DA-BE04560370EF}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1">
       <c r="A1" s="126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6019,27 +6514,27 @@
       <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="257" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="246" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="253"/>
       <c r="H2" s="143"/>
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
       <c r="K2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="252"/>
-      <c r="B3" s="245"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="253"/>
       <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
@@ -6047,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F3" s="48">
         <v>2024</v>
@@ -6086,245 +6581,391 @@
       <c r="G4" s="128">
         <v>7</v>
       </c>
-      <c r="H4" s="165"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="140"/>
       <c r="J4" s="135"/>
       <c r="K4" s="135"/>
     </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1">
-      <c r="A5" s="141" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="135" t="s">
-        <v>202</v>
-      </c>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="146"/>
+      <c r="C5" s="158">
+        <v>8</v>
+      </c>
+      <c r="D5" s="158">
+        <v>8</v>
+      </c>
+      <c r="E5" s="158">
+        <v>8</v>
+      </c>
+      <c r="F5" s="158">
+        <v>8</v>
+      </c>
+      <c r="G5" s="158">
+        <v>8</v>
+      </c>
+      <c r="H5" s="158">
+        <v>8</v>
+      </c>
+      <c r="I5" s="158">
+        <v>8</v>
+      </c>
+      <c r="J5" s="135"/>
       <c r="K5" s="135"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
+    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="A6" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="157">
+        <f>SUM(C6:I6)</f>
+        <v>775493.88037484046</v>
+      </c>
+      <c r="C6" s="157">
+        <f>Издержки!B29</f>
+        <v>33498.101999999999</v>
+      </c>
+      <c r="D6" s="157">
+        <f>Издержки!C29</f>
+        <v>33783.101999999999</v>
+      </c>
+      <c r="E6" s="157">
+        <f>Издержки!D29</f>
+        <v>63836.403999999995</v>
+      </c>
+      <c r="F6" s="157">
+        <f>Издержки!E29</f>
+        <v>140862.29536000002</v>
+      </c>
+      <c r="G6" s="157">
+        <f>Издержки!F29</f>
+        <v>153647.14298880001</v>
+      </c>
+      <c r="H6" s="157">
+        <f>Издержки!G29</f>
+        <v>167504.65762790403</v>
+      </c>
+      <c r="I6" s="157">
+        <f>Издержки!H29</f>
+        <v>182362.17639813636</v>
+      </c>
       <c r="J6" s="135"/>
       <c r="K6" s="135"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1">
       <c r="A7" s="141" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
+        <v>263</v>
+      </c>
+      <c r="B7" s="254"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="135"/>
       <c r="K7" s="135"/>
     </row>
-    <row r="8" spans="1:11" ht="30.75" customHeight="1">
+    <row r="8" spans="1:11" ht="20.25" customHeight="1">
       <c r="A8" s="141" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="140"/>
+        <v>264</v>
+      </c>
+      <c r="B8" s="157">
+        <f>SUM(C8:I8)</f>
+        <v>455910.23100000003</v>
+      </c>
+      <c r="C8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="D8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="E8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="F8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="G8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="H8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
+      <c r="I8" s="157">
+        <f>Инвестиции!B13</f>
+        <v>65130.033000000003</v>
+      </c>
       <c r="J8" s="135"/>
       <c r="K8" s="135"/>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1">
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="141" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
+        <v>265</v>
+      </c>
+      <c r="B9" s="157">
+        <f>SUM(C9:I9)</f>
+        <v>1256095.5648000003</v>
+      </c>
+      <c r="C9" s="157">
+        <f>Реализация!C7</f>
+        <v>45000</v>
+      </c>
+      <c r="D9" s="157">
+        <f>Реализация!D7</f>
+        <v>45000</v>
+      </c>
+      <c r="E9" s="157">
+        <f>Реализация!E7</f>
+        <v>60000</v>
+      </c>
+      <c r="F9" s="157">
+        <f>Реализация!F7</f>
+        <v>194400</v>
+      </c>
+      <c r="G9" s="157">
+        <f>Реализация!G7</f>
+        <v>262440.00000000006</v>
+      </c>
+      <c r="H9" s="157">
+        <f>Реализация!H7</f>
+        <v>302330.88000000006</v>
+      </c>
+      <c r="I9" s="157">
+        <f>Реализация!I7</f>
+        <v>346924.6848000001</v>
+      </c>
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
     </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1">
+    <row r="10" spans="1:11" ht="32.25" customHeight="1">
       <c r="A10" s="141" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
+        <v>266</v>
+      </c>
+      <c r="B10" s="254"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="135"/>
       <c r="K10" s="135"/>
     </row>
-    <row r="11" spans="1:11" ht="30">
-      <c r="A11" s="141" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
+    <row r="11" spans="1:11" ht="26.25">
+      <c r="A11" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="158">
+        <v>123</v>
+      </c>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="140"/>
       <c r="J11" s="135"/>
       <c r="K11" s="135"/>
     </row>
-    <row r="12" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A12" s="141" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="250"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="140"/>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A12" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="139"/>
+      <c r="C12" s="157">
+        <f>'Дисконт доход'!B24</f>
+        <v>-91202.917463999969</v>
+      </c>
+      <c r="D12" s="157">
+        <f>'Дисконт доход'!C24</f>
+        <v>-167075.35372799996</v>
+      </c>
+      <c r="E12" s="157">
+        <f>'Дисконт доход'!D24</f>
+        <v>-213174.55223966663</v>
+      </c>
+      <c r="F12" s="157">
+        <f>'Дисконт доход'!E24</f>
+        <v>-185168.58592095823</v>
+      </c>
+      <c r="G12" s="157">
+        <f>'Дисконт доход'!F24</f>
+        <v>-133345.78654129774</v>
+      </c>
+      <c r="H12" s="157">
+        <f>'Дисконт доход'!G24</f>
+        <v>-70375.118454549593</v>
+      </c>
+      <c r="I12" s="157">
+        <f>'Дисконт доход'!H24</f>
+        <v>571.85730395636347</v>
+      </c>
       <c r="J12" s="135"/>
       <c r="K12" s="135"/>
     </row>
     <row r="13" spans="1:11" ht="26.25">
       <c r="A13" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="165"/>
+        <v>269</v>
+      </c>
+      <c r="B13" s="152">
+        <f>Эффективность!B9</f>
+        <v>0.62049121602463786</v>
+      </c>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="160"/>
       <c r="I13" s="140"/>
       <c r="J13" s="135"/>
       <c r="K13" s="135"/>
     </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
+        <v>270</v>
+      </c>
+      <c r="B14" s="152">
+        <f>Эффективность!B10</f>
+        <v>-10.205024662151631</v>
+      </c>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="135"/>
       <c r="K14" s="135"/>
     </row>
-    <row r="15" spans="1:11" ht="26.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="140"/>
+        <v>271</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="157">
+        <f>Эффективность!C11</f>
+        <v>28.793594808807679</v>
+      </c>
+      <c r="D15" s="157">
+        <f>Эффективность!D11</f>
+        <v>31.091237947307445</v>
+      </c>
+      <c r="E15" s="157">
+        <f>Эффективность!E11</f>
+        <v>197.35099203308152</v>
+      </c>
+      <c r="F15" s="157">
+        <f>Эффективность!F11</f>
+        <v>28.232586123934812</v>
+      </c>
+      <c r="G15" s="157">
+        <f>Эффективность!G11</f>
+        <v>18.124781313127986</v>
+      </c>
+      <c r="H15" s="157">
+        <f>Эффективность!H11</f>
+        <v>16.782592636230518</v>
+      </c>
+      <c r="I15" s="157">
+        <f>Эффективность!I11</f>
+        <v>15.596125426216313</v>
+      </c>
       <c r="J15" s="135"/>
       <c r="K15" s="135"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="140"/>
+        <v>272</v>
+      </c>
+      <c r="B16" s="139"/>
+      <c r="C16" s="153">
+        <f>Эффективность!C13</f>
+        <v>6.5605325333333353E-2</v>
+      </c>
+      <c r="D16" s="153">
+        <f>Эффективность!D13</f>
+        <v>5.8131992000000028E-2</v>
+      </c>
+      <c r="E16" s="153">
+        <f>Эффективность!E13</f>
+        <v>-0.26394006666666664</v>
+      </c>
+      <c r="F16" s="153">
+        <f>Эффективность!F13</f>
+        <v>8.8971663967078146E-2</v>
+      </c>
+      <c r="G16" s="153">
+        <f>Эффективность!G13</f>
+        <v>0.2531616036930957</v>
+      </c>
+      <c r="H16" s="153">
+        <f>Эффективность!H13</f>
+        <v>0.29022789441512986</v>
+      </c>
+      <c r="I16" s="153">
+        <f>Эффективность!I13</f>
+        <v>0.32372886456939481</v>
+      </c>
       <c r="J16" s="135"/>
       <c r="K16" s="135"/>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B17" s="139"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
+      <c r="C17" s="153">
+        <f>Эффективность!C14</f>
+        <v>4.5328391588562549E-2</v>
+      </c>
+      <c r="D17" s="153">
+        <f>Эффективность!D14</f>
+        <v>4.0164875089192746E-2</v>
+      </c>
+      <c r="E17" s="153">
+        <f>Эффективность!E14</f>
+        <v>-0.24315056004961641</v>
+      </c>
+      <c r="F17" s="153">
+        <f>Эффективность!F14</f>
+        <v>0.26556245526852396</v>
+      </c>
+      <c r="G17" s="153">
+        <f>Эффективность!G14</f>
+        <v>1.0201089760420672</v>
+      </c>
+      <c r="H17" s="153">
+        <f>Эффективность!H14</f>
+        <v>1.3472257064428834</v>
+      </c>
+      <c r="I17" s="153">
+        <f>Эффективность!I14</f>
+        <v>1.7243893351228488</v>
+      </c>
       <c r="J17" s="135"/>
       <c r="K17" s="135"/>
-    </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-    </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6338,7 +6979,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6365,31 +7006,31 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="175"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="180"/>
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="184">
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="188">
         <v>2023</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="180"/>
       <c r="F3" s="27">
         <v>2024</v>
       </c>
@@ -7031,93 +7672,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A4" s="205"/>
-      <c r="B4" s="199">
+      <c r="A4" s="202"/>
+      <c r="B4" s="196">
         <v>2023</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="189">
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="208">
         <v>2024</v>
       </c>
-      <c r="L4" s="190"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="189">
+      <c r="L4" s="209"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="208">
         <v>2025</v>
       </c>
-      <c r="O4" s="190"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="185">
+      <c r="O4" s="209"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="204">
         <v>2026</v>
       </c>
-      <c r="R4" s="186"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="185">
+      <c r="R4" s="205"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="204">
         <v>2027</v>
       </c>
-      <c r="U4" s="186"/>
-      <c r="V4" s="187"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="206"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="205"/>
-      <c r="B5" s="192" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="192" t="s">
+      <c r="C5" s="190"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="193"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="196" t="s">
+      <c r="F5" s="190"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="197"/>
-      <c r="J5" s="198"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
@@ -7132,7 +7773,7 @@
       <c r="V5" s="40"/>
     </row>
     <row r="6" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A6" s="206"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="37" t="s">
         <v>65</v>
       </c>
@@ -7852,17 +8493,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7873,7 +8514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67F3230-1E3F-4FB1-955E-98E74891C7D6}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7890,33 +8531,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="53"/>
       <c r="F1" s="53"/>
       <c r="G1" s="84"/>
       <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="217"/>
       <c r="G2" s="84"/>
       <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="211"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
@@ -7969,11 +8610,11 @@
       <c r="A5" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
     </row>
@@ -8655,7 +9296,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8664,38 +9305,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="221"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225"/>
       <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="215"/>
-      <c r="B3" s="217"/>
+      <c r="A3" s="219"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
@@ -8868,7 +9509,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8884,31 +9525,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="53"/>
       <c r="F1" s="53"/>
       <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="224"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="211"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
@@ -9308,43 +9949,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="231" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="229" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="226"/>
+      <c r="A3" s="230"/>
       <c r="B3" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="D3" s="110" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>171</v>
       </c>
       <c r="E3" s="110">
         <v>2024</v>
@@ -9387,7 +10028,7 @@
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" s="117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="118">
         <f>ЧП!B7</f>
@@ -9420,7 +10061,7 @@
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1">
       <c r="A6" s="117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="118">
         <v>255.09600000000012</v>
@@ -9446,7 +10087,7 @@
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="A7" s="117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="120">
         <f>Издержки!B20</f>
@@ -9479,7 +10120,7 @@
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="125">
         <f>SUM(B5:B7)</f>
@@ -9525,7 +10166,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9536,28 +10177,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="235" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="230" t="s">
-        <v>129</v>
+      <c r="B2" s="234" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -9571,14 +10212,14 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="115"/>
       <c r="C5" s="71"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="115">
         <v>0</v>
@@ -9587,19 +10228,19 @@
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="116">
         <f>Амортизация!C20</f>
         <v>13700</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1">
       <c r="A8" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="108">
         <v>0</v>
@@ -9608,7 +10249,7 @@
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="108">
         <v>0</v>
@@ -9617,7 +10258,7 @@
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
       <c r="A10" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="108">
         <v>0</v>
@@ -9626,38 +10267,38 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="170">
+        <v>142</v>
+      </c>
+      <c r="B11" s="164">
         <f>B7</f>
         <v>13700</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1">
       <c r="A12" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="170">
+        <v>144</v>
+      </c>
+      <c r="B12" s="164">
         <f>Потребности!B15</f>
         <v>51430.033000000003</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1">
       <c r="A13" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="170">
+        <v>146</v>
+      </c>
+      <c r="B13" s="164">
         <f>SUM(B11:B12)</f>
         <v>65130.033000000003</v>
       </c>
       <c r="C13" s="121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9689,35 +10330,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1">
-      <c r="A1" s="227" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
+      <c r="A1" s="231" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
       <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="229" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="240"/>
       <c r="I2" s="86"/>
       <c r="J2" s="86"/>
       <c r="K2" s="86"/>
@@ -9732,15 +10373,15 @@
       <c r="X2" s="86"/>
     </row>
     <row r="3" spans="1:24" ht="30">
-      <c r="A3" s="226"/>
+      <c r="A3" s="230"/>
       <c r="B3" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="D3" s="110" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>171</v>
       </c>
       <c r="E3" s="110">
         <v>2024</v>
@@ -9771,16 +10412,16 @@
       <c r="A4" s="112">
         <v>1</v>
       </c>
-      <c r="B4" s="171">
+      <c r="B4" s="165">
         <v>2</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="165">
         <v>3</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="165">
         <v>4</v>
       </c>
-      <c r="E4" s="171">
+      <c r="E4" s="165">
         <v>5</v>
       </c>
       <c r="F4" s="114">
@@ -9807,33 +10448,33 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="172">
+        <v>149</v>
+      </c>
+      <c r="B5" s="166">
         <f>SUM(B6:B7)</f>
         <v>15001</v>
       </c>
-      <c r="C5" s="172">
+      <c r="C5" s="166">
         <f t="shared" ref="C5:H5" si="0">SUM(C6:C7)</f>
         <v>15001</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="166">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="E5" s="172">
+      <c r="E5" s="166">
         <f t="shared" si="0"/>
         <v>16201</v>
       </c>
-      <c r="F5" s="172">
+      <c r="F5" s="166">
         <f t="shared" si="0"/>
         <v>21871.000000000004</v>
       </c>
-      <c r="G5" s="172">
+      <c r="G5" s="166">
         <f t="shared" si="0"/>
         <v>25195.240000000005</v>
       </c>
-      <c r="H5" s="172">
+      <c r="H5" s="166">
         <f t="shared" si="0"/>
         <v>28911.390400000011</v>
       </c>
@@ -9852,7 +10493,7 @@
     </row>
     <row r="6" spans="1:24" ht="26.25">
       <c r="A6" s="108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="115">
         <f>ЧП!B5*30/90</f>
@@ -9882,12 +10523,12 @@
         <f>ЧП!H5*30/360</f>
         <v>28910.390400000011</v>
       </c>
-      <c r="I6" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
+      <c r="I6" s="236" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
       <c r="M6" s="71"/>
       <c r="R6" s="86"/>
       <c r="S6" s="86"/>
@@ -9899,7 +10540,7 @@
     </row>
     <row r="7" spans="1:24" ht="26.25">
       <c r="A7" s="108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="116">
         <v>1</v>
@@ -9922,11 +10563,11 @@
       <c r="H7" s="116">
         <v>1</v>
       </c>
-      <c r="I7" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
+      <c r="I7" s="236" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
       <c r="R7" s="86"/>
@@ -9939,38 +10580,38 @@
     </row>
     <row r="8" spans="1:24" ht="25.5">
       <c r="A8" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="170">
+        <v>154</v>
+      </c>
+      <c r="B8" s="164">
         <f>B5</f>
         <v>15001</v>
       </c>
-      <c r="C8" s="170">
+      <c r="C8" s="164">
         <f>C5-B5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="170">
+      <c r="D8" s="164">
         <f>D5-C5</f>
         <v>-5000</v>
       </c>
-      <c r="E8" s="170">
+      <c r="E8" s="164">
         <f t="shared" ref="E8:H8" si="1">E5-D5</f>
         <v>6200</v>
       </c>
-      <c r="F8" s="170">
+      <c r="F8" s="164">
         <f t="shared" si="1"/>
         <v>5670.0000000000036</v>
       </c>
-      <c r="G8" s="170">
+      <c r="G8" s="164">
         <f t="shared" si="1"/>
         <v>3324.2400000000016</v>
       </c>
-      <c r="H8" s="170">
+      <c r="H8" s="164">
         <f t="shared" si="1"/>
         <v>3716.1504000000059</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
@@ -9986,7 +10627,7 @@
     </row>
     <row r="9" spans="1:24" ht="26.25" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="108">
         <f>SUM(B10:B12)</f>
@@ -10031,7 +10672,7 @@
     </row>
     <row r="10" spans="1:24" ht="43.5" customHeight="1">
       <c r="A10" s="108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="108">
         <f>SUM(Издержки!B11:B18)*30/90</f>
@@ -10061,13 +10702,13 @@
         <f>SUM(Издержки!H11:H18)*30/360</f>
         <v>94.583333333333329</v>
       </c>
-      <c r="I10" s="232" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
+      <c r="I10" s="236" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
       <c r="R10" s="86"/>
       <c r="S10" s="86"/>
       <c r="T10" s="86"/>
@@ -10078,7 +10719,7 @@
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1">
       <c r="A11" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="108">
         <f>Издержки!B21*15/90</f>
@@ -10108,57 +10749,57 @@
         <f>Издержки!H21*15/360</f>
         <v>4554.9170380800015</v>
       </c>
-      <c r="I11" s="232" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
+      <c r="I11" s="236" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
     </row>
     <row r="12" spans="1:24" ht="25.5">
       <c r="A12" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="170">
+        <v>161</v>
+      </c>
+      <c r="B12" s="164">
         <f>'Обязательные отчисления'!B8*15/90</f>
         <v>2700.8663333333334</v>
       </c>
-      <c r="C12" s="170">
+      <c r="C12" s="164">
         <f>'Обязательные отчисления'!C8*15/90</f>
         <v>2688.5663333333337</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="164">
         <f>'Обязательные отчисления'!D8*15/180</f>
         <v>2158.3503333333329</v>
       </c>
-      <c r="E12" s="170">
+      <c r="E12" s="164">
         <f>'Обязательные отчисления'!E8*15/360</f>
         <v>2945.3049600000004</v>
       </c>
-      <c r="F12" s="170">
+      <c r="F12" s="164">
         <f>'Обязательные отчисления'!F8*15/360</f>
         <v>3921.558376800001</v>
       </c>
-      <c r="G12" s="170">
+      <c r="G12" s="164">
         <f>'Обязательные отчисления'!G8*15/360</f>
         <v>4494.8280529440008</v>
       </c>
-      <c r="H12" s="170">
+      <c r="H12" s="164">
         <f>'Обязательные отчисления'!H8*15/360</f>
         <v>5135.6608273795209</v>
       </c>
-      <c r="I12" s="232" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" s="233"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
+      <c r="I12" s="236" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
     </row>
     <row r="13" spans="1:24" ht="25.5">
       <c r="A13" s="108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="108">
         <f>B9</f>
@@ -10189,7 +10830,7 @@
         <v>9785.1611987928554</v>
       </c>
       <c r="I13" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="71"/>
       <c r="K13" s="71"/>
@@ -10198,37 +10839,37 @@
     </row>
     <row r="14" spans="1:24" ht="25.5">
       <c r="A14" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="170">
+        <v>165</v>
+      </c>
+      <c r="B14" s="164">
         <f>SUM(B5:B9)</f>
         <v>51430.033000000003</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="164">
         <f t="shared" ref="C14:H14" si="4">SUM(C5:C9)</f>
         <v>36416.733</v>
       </c>
-      <c r="D14" s="170">
+      <c r="D14" s="164">
         <f t="shared" si="4"/>
         <v>20697.350333333332</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="164">
         <f t="shared" si="4"/>
         <v>45257.728293333334</v>
       </c>
-      <c r="F14" s="170">
+      <c r="F14" s="164">
         <f t="shared" si="4"/>
         <v>57333.248910133349</v>
       </c>
-      <c r="G14" s="170">
+      <c r="G14" s="164">
         <f t="shared" si="4"/>
         <v>62521.647162277353</v>
       </c>
-      <c r="H14" s="170">
+      <c r="H14" s="164">
         <f t="shared" si="4"/>
         <v>71324.092398792884</v>
       </c>
-      <c r="I14" s="169">
+      <c r="I14" s="163">
         <v>44564</v>
       </c>
       <c r="J14" s="71"/>
@@ -10238,38 +10879,38 @@
     </row>
     <row r="15" spans="1:24" ht="25.5">
       <c r="A15" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="170">
+        <v>166</v>
+      </c>
+      <c r="B15" s="164">
         <f>B14</f>
         <v>51430.033000000003</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="164">
         <f t="shared" ref="C15:H15" si="5">C14</f>
         <v>36416.733</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="164">
         <f t="shared" si="5"/>
         <v>20697.350333333332</v>
       </c>
-      <c r="E15" s="170">
+      <c r="E15" s="164">
         <f t="shared" si="5"/>
         <v>45257.728293333334</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="164">
         <f t="shared" si="5"/>
         <v>57333.248910133349</v>
       </c>
-      <c r="G15" s="170">
+      <c r="G15" s="164">
         <f t="shared" si="5"/>
         <v>62521.647162277353</v>
       </c>
-      <c r="H15" s="170">
+      <c r="H15" s="164">
         <f t="shared" si="5"/>
         <v>71324.092398792884</v>
       </c>
       <c r="I15" s="135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J15" s="71"/>
       <c r="K15" s="71"/>

--- a/Business/Бизнес.xlsx
+++ b/Business/Бизнес.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6_semester\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E107199F-3D53-49A5-A66F-97286E100FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEA751-2A27-430B-97E5-6F176DE65000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ресурсы" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2203,22 +2203,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2251,6 +2254,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2295,27 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2428,9 +2431,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% — акцент6" xfId="6" builtinId="51"/>
@@ -2688,17 +2689,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2718,18 +2719,18 @@
       <c r="E2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
       <c r="R2" s="180"/>
       <c r="S2" s="1"/>
     </row>
@@ -3459,13 +3460,13 @@
       <c r="S14" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3486,21 +3487,21 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
       <c r="R18" s="180"/>
       <c r="S18" s="1"/>
     </row>
@@ -4126,6 +4127,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="A17:E17"/>
@@ -4135,15 +4145,6 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E2:R2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4179,21 +4180,21 @@
       <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="241"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="113" t="s">
         <v>160</v>
       </c>
@@ -4483,10 +4484,10 @@
       <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="246" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="126"/>
@@ -4494,8 +4495,8 @@
       <c r="E2" s="118"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="241"/>
-      <c r="B3" s="246"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="126"/>
       <c r="D3" s="118"/>
       <c r="E3" s="118"/>
@@ -4526,7 +4527,7 @@
       </c>
       <c r="B6" s="129">
         <f>B8-B7</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="C6" s="130" t="s">
         <v>178</v>
@@ -4553,7 +4554,7 @@
       </c>
       <c r="B8" s="129">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="C8" s="131" t="s">
         <v>182</v>
@@ -4609,8 +4610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D276416-A74E-45CB-A18F-94AE77F626C3}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4649,19 +4650,19 @@
       <c r="S1" s="118"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="252" t="s">
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="253" t="s">
         <v>210</v>
       </c>
       <c r="J2" s="126"/>
@@ -4676,7 +4677,7 @@
       <c r="S2" s="118"/>
     </row>
     <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="241"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -4698,7 +4699,7 @@
       <c r="H3" s="145">
         <v>2027</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="J3" s="126"/>
       <c r="K3" s="118"/>
       <c r="L3" s="118"/>
@@ -4749,14 +4750,14 @@
       <c r="A5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="248"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="249"/>
       <c r="J5" s="126"/>
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
@@ -4842,14 +4843,14 @@
       <c r="A8" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="254"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="246"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="247"/>
       <c r="J8" s="126"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
@@ -4867,35 +4868,35 @@
       </c>
       <c r="B9" s="121">
         <f>SUM(B10:B14)</f>
-        <v>169620.61218666667</v>
+        <v>16012.612186666669</v>
       </c>
       <c r="C9" s="121">
         <f t="shared" ref="C9:I9" si="0">SUM(C10:C14)</f>
-        <v>169827.71218666664</v>
+        <v>16220.712186666664</v>
       </c>
       <c r="D9" s="121">
         <f t="shared" si="0"/>
-        <v>188707.91214222222</v>
+        <v>37234.245475555552</v>
       </c>
       <c r="E9" s="121">
         <f t="shared" si="0"/>
-        <v>391408.37867999997</v>
+        <v>147460.04534666668</v>
       </c>
       <c r="F9" s="121">
         <f t="shared" si="0"/>
-        <v>454513.65016586671</v>
+        <v>183980.57016586672</v>
       </c>
       <c r="G9" s="121">
         <f t="shared" si="0"/>
-        <v>523626.78245060274</v>
+        <v>218261.36965060269</v>
       </c>
       <c r="H9" s="121">
         <f t="shared" si="0"/>
-        <v>714459.31278131786</v>
+        <v>307192.06382131763</v>
       </c>
       <c r="I9" s="153">
         <f t="shared" si="0"/>
-        <v>2529964.3605933432</v>
+        <v>844161.61883334257</v>
       </c>
       <c r="J9" s="126"/>
       <c r="K9" s="118"/>
@@ -4960,37 +4961,37 @@
       <c r="A11" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="259">
+      <c r="B11" s="178">
         <f>Потребности!B14</f>
-        <v>64280.476773333336</v>
-      </c>
-      <c r="C11" s="259">
+        <v>-12523.523226666666</v>
+      </c>
+      <c r="C11" s="178">
         <f>Потребности!C14</f>
-        <v>60292.776773333331</v>
-      </c>
-      <c r="D11" s="259">
+        <v>-16510.223226666669</v>
+      </c>
+      <c r="D11" s="178">
         <f>Потребности!D14</f>
-        <v>56468.07984888889</v>
-      </c>
-      <c r="E11" s="259">
+        <v>-18201.586817777781</v>
+      </c>
+      <c r="E11" s="178">
         <f>Потребности!E14</f>
-        <v>131069.18298186666</v>
-      </c>
-      <c r="F11" s="259">
+        <v>-36075.150351466669</v>
+      </c>
+      <c r="F11" s="178">
         <f>Потребности!F14</f>
-        <v>147603.24239374936</v>
-      </c>
-      <c r="G11" s="259">
+        <v>-46125.837606250672</v>
+      </c>
+      <c r="G11" s="178">
         <f>Потребности!G14</f>
-        <v>172939.97032978263</v>
-      </c>
-      <c r="H11" s="259">
+        <v>-55621.442470217386</v>
+      </c>
+      <c r="H11" s="178">
         <f>Потребности!H14</f>
-        <v>251619.7724651467</v>
+        <v>-78843.476494853487</v>
       </c>
       <c r="I11" s="153">
         <f>SUM(B11:H11)</f>
-        <v>884273.50156610098</v>
+        <v>-263901.24019389931</v>
       </c>
       <c r="J11" s="131" t="s">
         <v>219</v>
@@ -5011,35 +5012,35 @@
       </c>
       <c r="B12" s="121">
         <f>Инвестиции!B13-Издержки!B23</f>
-        <v>77295.476773333328</v>
+        <v>491.47677333333377</v>
       </c>
       <c r="C12" s="121">
         <f>Инвестиции!B13-Издержки!C23</f>
-        <v>76610.476773333328</v>
+        <v>-193.52322666666623</v>
       </c>
       <c r="D12" s="121">
         <f>Инвестиции!B13-Издержки!D23</f>
-        <v>75240.476773333328</v>
+        <v>-1563.5232266666662</v>
       </c>
       <c r="E12" s="121">
         <f>Инвестиции!B13-Издержки!E23</f>
-        <v>72500.476773333328</v>
+        <v>-4303.5232266666662</v>
       </c>
       <c r="F12" s="121">
         <f>Инвестиции!B13-Издержки!F23</f>
-        <v>69760.476773333328</v>
+        <v>-7043.5232266666662</v>
       </c>
       <c r="G12" s="121">
         <f>Инвестиции!B13-Издержки!G23</f>
-        <v>67020.476773333328</v>
+        <v>-9783.5232266666662</v>
       </c>
       <c r="H12" s="121">
         <f>Инвестиции!B13-Издержки!H23</f>
-        <v>64280.476773333328</v>
+        <v>-12523.523226666666</v>
       </c>
       <c r="I12" s="153">
         <f>SUM(B12:H12)</f>
-        <v>502708.3374133333</v>
+        <v>-34919.662586666665</v>
       </c>
       <c r="J12" s="131" t="s">
         <v>221</v>
@@ -5154,35 +5155,35 @@
       </c>
       <c r="B15" s="121">
         <f>B7-B9</f>
-        <v>-112020.61218666667</v>
+        <v>41587.387813333335</v>
       </c>
       <c r="C15" s="121">
         <f t="shared" ref="C15:I15" si="1">C7-C9</f>
-        <v>-97827.712186666642</v>
+        <v>55779.287813333336</v>
       </c>
       <c r="D15" s="121">
         <f t="shared" si="1"/>
-        <v>-40707.912142222223</v>
+        <v>110765.75452444445</v>
       </c>
       <c r="E15" s="121">
         <f t="shared" si="1"/>
-        <v>184015.62132000003</v>
+        <v>427963.95465333329</v>
       </c>
       <c r="F15" s="121">
         <f t="shared" si="1"/>
-        <v>270520.5898341334</v>
+        <v>541053.66983413335</v>
       </c>
       <c r="G15" s="121">
         <f t="shared" si="1"/>
-        <v>343307.01594939735</v>
+        <v>648672.4287493974</v>
       </c>
       <c r="H15" s="121">
         <f t="shared" si="1"/>
-        <v>493654.88369868253</v>
+        <v>900922.13265868276</v>
       </c>
       <c r="I15" s="153">
         <f t="shared" si="1"/>
-        <v>1123141.8742866577</v>
+        <v>2808944.6160466583</v>
       </c>
       <c r="J15" s="131" t="s">
         <v>225</v>
@@ -5203,31 +5204,31 @@
       </c>
       <c r="B16" s="121">
         <f>B15</f>
-        <v>-112020.61218666667</v>
+        <v>41587.387813333335</v>
       </c>
       <c r="C16" s="121">
         <f>B15+C15</f>
-        <v>-209848.32437333331</v>
+        <v>97366.675626666663</v>
       </c>
       <c r="D16" s="121">
         <f>SUM(B15:D15)</f>
-        <v>-250556.23651555553</v>
+        <v>208132.4301511111</v>
       </c>
       <c r="E16" s="121">
         <f>SUM(B15:E15)</f>
-        <v>-66540.615195555496</v>
+        <v>636096.38480444439</v>
       </c>
       <c r="F16" s="121">
         <f>SUM(B15:F15)</f>
-        <v>203979.9746385779</v>
+        <v>1177150.0546385776</v>
       </c>
       <c r="G16" s="121">
         <f>SUM(B15:G15)</f>
-        <v>547286.99058797525</v>
+        <v>1825822.483387975</v>
       </c>
       <c r="H16" s="121">
         <f>SUM(B15:H15)</f>
-        <v>1040941.8742866578</v>
+        <v>2726744.6160466578</v>
       </c>
       <c r="I16" s="154"/>
       <c r="J16" s="126"/>
@@ -5245,14 +5246,14 @@
       <c r="A17" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="248"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="249"/>
       <c r="J17" s="126"/>
       <c r="K17" s="118"/>
       <c r="L17" s="118"/>
@@ -5393,35 +5394,35 @@
       </c>
       <c r="B21" s="121">
         <f>B9*B19</f>
-        <v>164871.23504544</v>
+        <v>15564.259045440002</v>
       </c>
       <c r="C21" s="121">
         <f t="shared" ref="C21:H21" si="3">C9*C19</f>
-        <v>165072.53624543996</v>
+        <v>15766.532245439997</v>
       </c>
       <c r="D21" s="121">
         <f t="shared" si="3"/>
-        <v>178310.10618318577</v>
+        <v>35182.63854985244</v>
       </c>
       <c r="E21" s="121">
         <f t="shared" si="3"/>
-        <v>312026.84539990913</v>
+        <v>117553.6735499092</v>
       </c>
       <c r="F21" s="121">
         <f t="shared" si="3"/>
-        <v>323513.72591506061</v>
+        <v>130953.69023266061</v>
       </c>
       <c r="G21" s="121">
         <f t="shared" si="3"/>
-        <v>332774.24552944215</v>
+        <v>138709.02911761173</v>
       </c>
       <c r="H21" s="121">
         <f t="shared" si="3"/>
-        <v>405384.21407211974</v>
+        <v>174300.77701221564</v>
       </c>
       <c r="I21" s="152">
         <f>SUM(B21:H21)</f>
-        <v>1881952.9083905972</v>
+        <v>628030.59975312953</v>
       </c>
       <c r="J21" s="126"/>
       <c r="K21" s="118"/>
@@ -5487,35 +5488,35 @@
       </c>
       <c r="B23" s="121">
         <f>B20-B21</f>
-        <v>-108884.03504544</v>
+        <v>40422.940954559992</v>
       </c>
       <c r="C23" s="121">
         <f t="shared" ref="C23:H23" si="5">C20-C21</f>
-        <v>-95088.536245439958</v>
+        <v>54217.467754559999</v>
       </c>
       <c r="D23" s="121">
         <f t="shared" si="5"/>
-        <v>-38464.906183185783</v>
+        <v>104662.56145014754</v>
       </c>
       <c r="E23" s="121">
         <f t="shared" si="5"/>
-        <v>146695.41316009086</v>
+        <v>341168.58501009078</v>
       </c>
       <c r="F23" s="121">
         <f t="shared" si="5"/>
-        <v>192551.14543213946</v>
+        <v>385111.18111453945</v>
       </c>
       <c r="G23" s="121">
         <f t="shared" si="5"/>
-        <v>218177.78816212917</v>
+        <v>412243.00457395962</v>
       </c>
       <c r="H23" s="121">
         <f t="shared" si="5"/>
-        <v>280099.78101063246</v>
+        <v>511183.21807053656</v>
       </c>
       <c r="I23" s="152">
         <f>SUM(B23:H23)</f>
-        <v>595086.65029092622</v>
+        <v>1849008.9589283941</v>
       </c>
       <c r="J23" s="130" t="s">
         <v>235</v>
@@ -5536,35 +5537,35 @@
       </c>
       <c r="B24" s="121">
         <f>B23</f>
-        <v>-108884.03504544</v>
+        <v>40422.940954559992</v>
       </c>
       <c r="C24" s="121">
         <f>B23+C23</f>
-        <v>-203972.57129087998</v>
+        <v>94640.408709119991</v>
       </c>
       <c r="D24" s="121">
         <f>D23+C24</f>
-        <v>-242437.47747406576</v>
+        <v>199302.97015926754</v>
       </c>
       <c r="E24" s="121">
         <f>D24+E23</f>
-        <v>-95742.064313974901</v>
+        <v>540471.55516935838</v>
       </c>
       <c r="F24" s="121">
         <f>E24+F23</f>
-        <v>96809.081118164555</v>
+        <v>925582.73628389789</v>
       </c>
       <c r="G24" s="121">
         <f>F24+G23</f>
-        <v>314986.8692802937</v>
+        <v>1337825.7408578575</v>
       </c>
       <c r="H24" s="121">
         <f>G24+H23</f>
-        <v>595086.65029092622</v>
+        <v>1849008.9589283941</v>
       </c>
       <c r="I24" s="152">
         <f>SUM(B24:H24)</f>
-        <v>355846.45256502379</v>
+        <v>4987255.3110624552</v>
       </c>
       <c r="J24" s="126"/>
       <c r="K24" s="118"/>
@@ -5648,9 +5649,9 @@
       <c r="A28" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="122">
+      <c r="B28" s="260">
         <f>F16/12</f>
-        <v>16998.331219881493</v>
+        <v>98095.837886548135</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>240</v>
@@ -5676,9 +5677,9 @@
       <c r="A29" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="129">
+      <c r="B29" s="121">
         <f>E16+(B28*4)</f>
-        <v>1452.7096839704755</v>
+        <v>1028479.7363506369</v>
       </c>
       <c r="C29" s="131" t="s">
         <v>242</v>
@@ -5758,9 +5759,9 @@
       <c r="A32" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="122">
+      <c r="B32" s="260">
         <f>F24/12</f>
-        <v>8067.4234265137129</v>
+        <v>77131.894690324829</v>
       </c>
       <c r="C32" s="126"/>
       <c r="D32" s="118"/>
@@ -5784,9 +5785,9 @@
       <c r="A33" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="129">
+      <c r="B33" s="121">
         <f>E24+(B32*12)</f>
-        <v>1067.0168041896541</v>
+        <v>1466054.2914532563</v>
       </c>
       <c r="C33" s="126"/>
       <c r="D33" s="118"/>
@@ -5880,7 +5881,7 @@
       <c r="B37" s="126"/>
       <c r="C37" s="126">
         <f>0.12+(H19-0.12) *I24/(I24-B24)</f>
-        <v>0.46257641175252001</v>
+        <v>0.57105592007773565</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -6044,22 +6045,22 @@
       <c r="R1" s="118"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickTop="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="253" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="252" t="s">
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="253" t="s">
         <v>190</v>
       </c>
       <c r="K2" s="126"/>
@@ -6072,8 +6073,8 @@
       <c r="R2" s="118"/>
     </row>
     <row r="3" spans="1:18" ht="26.25">
-      <c r="A3" s="241"/>
-      <c r="B3" s="253"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="254"/>
       <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
@@ -6095,7 +6096,7 @@
       <c r="I3" s="145">
         <v>2027</v>
       </c>
-      <c r="J3" s="253"/>
+      <c r="J3" s="254"/>
       <c r="K3" s="126"/>
       <c r="L3" s="118"/>
       <c r="M3" s="118"/>
@@ -6145,15 +6146,15 @@
       <c r="A5" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="253"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="254"/>
       <c r="K5" s="126"/>
       <c r="L5" s="118"/>
       <c r="M5" s="118"/>
@@ -6219,7 +6220,7 @@
       </c>
       <c r="B8" s="160">
         <f>'Дисконт доход'!I24</f>
-        <v>355846.45256502379</v>
+        <v>4987255.3110624552</v>
       </c>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
@@ -6244,7 +6245,7 @@
       </c>
       <c r="B9" s="133">
         <f>'Дисконт доход'!C37</f>
-        <v>0.46257641175252001</v>
+        <v>0.57105592007773565</v>
       </c>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
@@ -6269,7 +6270,7 @@
       </c>
       <c r="B10" s="133">
         <f>(B8+'Дисконт доход'!I22)/'Дисконт доход'!I22</f>
-        <v>5.6375962842880236</v>
+        <v>65.996788734749614</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
@@ -6343,15 +6344,15 @@
       <c r="A12" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="256"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="253"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="254"/>
       <c r="K12" s="126"/>
       <c r="L12" s="118"/>
       <c r="M12" s="118"/>
@@ -6413,31 +6414,31 @@
       <c r="B14" s="116"/>
       <c r="C14" s="134">
         <f>ЧП!B14/Инвестиции!B13</f>
-        <v>0.23745952071855322</v>
+        <v>15.739542895976479</v>
       </c>
       <c r="D14" s="134">
         <f>ЧП!C14/Инвестиции!B13</f>
-        <v>0.40557595886378789</v>
+        <v>26.882814312084218</v>
       </c>
       <c r="E14" s="134">
         <f>ЧП!D14/Инвестиции!B13</f>
-        <v>1.1516585933131609</v>
+        <v>76.335451937750648</v>
       </c>
       <c r="F14" s="134">
         <f>ЧП!E14/Инвестиции!B13</f>
-        <v>4.9644637004474657</v>
+        <v>329.05982936487032</v>
       </c>
       <c r="G14" s="134">
         <f>ЧП!F14/Инвестиции!B13</f>
-        <v>6.5944452999732883</v>
+        <v>437.09999228508696</v>
       </c>
       <c r="H14" s="134">
         <f>ЧП!G14/Инвестиции!B13</f>
-        <v>8.1191190413021523</v>
+        <v>538.16002846050571</v>
       </c>
       <c r="I14" s="134">
         <f>ЧП!H14/Инвестиции!B13</f>
-        <v>12.041386055480771</v>
+        <v>798.13987568806101</v>
       </c>
       <c r="J14" s="116"/>
       <c r="K14" s="131" t="s">
@@ -6468,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180DD25-E12C-44E6-B0DA-BE04560370EF}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -6499,27 +6500,27 @@
       <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="253" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="253"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="126"/>
       <c r="I2" s="118"/>
       <c r="J2" s="118"/>
       <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="258"/>
-      <c r="B3" s="253"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="254"/>
       <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
@@ -6643,12 +6644,12 @@
       <c r="A7" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="254"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
       <c r="H7" s="143"/>
       <c r="I7" s="123"/>
       <c r="J7" s="118"/>
@@ -6660,35 +6661,35 @@
       </c>
       <c r="B8" s="140">
         <f>SUM(C8:I8)</f>
-        <v>545863.33741333336</v>
+        <v>8235.3374133333364</v>
       </c>
       <c r="C8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="D8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="E8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="F8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="G8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="H8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="I8" s="140">
         <f>Инвестиции!B13</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="J8" s="118"/>
       <c r="K8" s="118"/>
@@ -6736,12 +6737,12 @@
       <c r="A10" s="124" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
       <c r="H10" s="143"/>
       <c r="I10" s="123"/>
       <c r="J10" s="118"/>
@@ -6771,31 +6772,31 @@
       <c r="B12" s="122"/>
       <c r="C12" s="140">
         <f>'Дисконт доход'!B24</f>
-        <v>-108884.03504544</v>
+        <v>40422.940954559992</v>
       </c>
       <c r="D12" s="140">
         <f>'Дисконт доход'!C24</f>
-        <v>-203972.57129087998</v>
+        <v>94640.408709119991</v>
       </c>
       <c r="E12" s="140">
         <f>'Дисконт доход'!D24</f>
-        <v>-242437.47747406576</v>
+        <v>199302.97015926754</v>
       </c>
       <c r="F12" s="140">
         <f>'Дисконт доход'!E24</f>
-        <v>-95742.064313974901</v>
+        <v>540471.55516935838</v>
       </c>
       <c r="G12" s="140">
         <f>'Дисконт доход'!F24</f>
-        <v>96809.081118164555</v>
+        <v>925582.73628389789</v>
       </c>
       <c r="H12" s="140">
         <f>'Дисконт доход'!G24</f>
-        <v>314986.8692802937</v>
+        <v>1337825.7408578575</v>
       </c>
       <c r="I12" s="140">
         <f>'Дисконт доход'!H24</f>
-        <v>595086.65029092622</v>
+        <v>1849008.9589283941</v>
       </c>
       <c r="J12" s="118"/>
       <c r="K12" s="118"/>
@@ -6806,7 +6807,7 @@
       </c>
       <c r="B13" s="135">
         <f>Эффективность!B9</f>
-        <v>0.46257641175252001</v>
+        <v>0.57105592007773565</v>
       </c>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
@@ -6824,7 +6825,7 @@
       </c>
       <c r="B14" s="135">
         <f>Эффективность!B10</f>
-        <v>5.6375962842880236</v>
+        <v>65.996788734749614</v>
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
@@ -6915,31 +6916,31 @@
       <c r="B17" s="122"/>
       <c r="C17" s="136">
         <f>Эффективность!C14</f>
-        <v>0.23745952071855322</v>
+        <v>15.739542895976479</v>
       </c>
       <c r="D17" s="136">
         <f>Эффективность!D14</f>
-        <v>0.40557595886378789</v>
+        <v>26.882814312084218</v>
       </c>
       <c r="E17" s="136">
         <f>Эффективность!E14</f>
-        <v>1.1516585933131609</v>
+        <v>76.335451937750648</v>
       </c>
       <c r="F17" s="136">
         <f>Эффективность!F14</f>
-        <v>4.9644637004474657</v>
+        <v>329.05982936487032</v>
       </c>
       <c r="G17" s="136">
         <f>Эффективность!G14</f>
-        <v>6.5944452999732883</v>
+        <v>437.09999228508696</v>
       </c>
       <c r="H17" s="136">
         <f>Эффективность!H14</f>
-        <v>8.1191190413021523</v>
+        <v>538.16002846050571</v>
       </c>
       <c r="I17" s="136">
         <f>Эффективность!I14</f>
-        <v>12.041386055480771</v>
+        <v>798.13987568806101</v>
       </c>
       <c r="J17" s="118"/>
       <c r="K17" s="118"/>
@@ -6991,30 +6992,30 @@
       <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
       <c r="I2" s="180"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="188">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="189">
         <v>2023</v>
       </c>
-      <c r="D3" s="181"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="180"/>
       <c r="F3" s="26">
         <v>2024</v>
@@ -7641,33 +7642,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="195"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="78"/>
       <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="193"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -7720,11 +7721,11 @@
       <c r="A5" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
     </row>
@@ -8376,93 +8377,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="203">
+      <c r="A4" s="217"/>
+      <c r="B4" s="211">
         <v>2023</v>
       </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="215">
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="201">
         <v>2024</v>
       </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="215">
+      <c r="L4" s="202"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="201">
         <v>2025</v>
       </c>
-      <c r="O4" s="216"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="211">
+      <c r="O4" s="202"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="197">
         <v>2026</v>
       </c>
-      <c r="R4" s="212"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="211">
+      <c r="R4" s="198"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="197">
         <v>2027</v>
       </c>
-      <c r="U4" s="212"/>
-      <c r="V4" s="213"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="199"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A5" s="209"/>
-      <c r="B5" s="196" t="s">
+      <c r="A5" s="217"/>
+      <c r="B5" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="196" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="200" t="s">
+      <c r="F5" s="205"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="201"/>
-      <c r="J5" s="202"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="210"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
@@ -8477,7 +8478,7 @@
       <c r="V5" s="39"/>
     </row>
     <row r="6" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A6" s="210"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="36" t="s">
         <v>65</v>
       </c>
@@ -9184,17 +9185,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9215,38 +9216,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="223" t="s">
+      <c r="C2" s="224" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="226"/>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="219"/>
-      <c r="B3" s="221"/>
+      <c r="A3" s="220"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9423,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9438,31 +9439,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
       <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="229"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="193"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
@@ -9828,35 +9829,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="230"/>
+      <c r="A3" s="231"/>
       <c r="B3" s="96" t="s">
         <v>160</v>
       </c>
@@ -10063,28 +10064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="235" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -10169,7 +10170,7 @@
       </c>
       <c r="B12" s="147">
         <f>Потребности!B15</f>
-        <v>64280.476773333336</v>
+        <v>-12523.523226666666</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>137</v>
@@ -10181,7 +10182,7 @@
       </c>
       <c r="B13" s="147">
         <f>SUM(B11:B12)</f>
-        <v>77980.476773333328</v>
+        <v>1176.4767733333338</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>139</v>
@@ -10201,8 +10202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B202A6-FDAA-4E30-9E88-13FD6648536C}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10216,35 +10217,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
       <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickTop="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="241"/>
       <c r="I2" s="80"/>
       <c r="J2" s="80"/>
       <c r="K2" s="80"/>
@@ -10259,7 +10260,7 @@
       <c r="X2" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="30">
-      <c r="A3" s="230"/>
+      <c r="A3" s="231"/>
       <c r="B3" s="96" t="s">
         <v>160</v>
       </c>
@@ -10409,12 +10410,12 @@
         <f>ЧП!H5*30/360</f>
         <v>100676.18304000005</v>
       </c>
-      <c r="I6" s="236" t="s">
+      <c r="I6" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
       <c r="M6" s="70"/>
       <c r="R6" s="80"/>
       <c r="S6" s="80"/>
@@ -10449,11 +10450,11 @@
       <c r="H7" s="103">
         <v>1</v>
       </c>
-      <c r="I7" s="236" t="s">
+      <c r="I7" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="R7" s="80"/>
@@ -10588,13 +10589,13 @@
         <f>SUM(Издержки!H7:H14)*30/360</f>
         <v>94.583333333333329</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
       <c r="T10" s="80"/>
@@ -10635,13 +10636,13 @@
         <f>Издержки!H17*15/360</f>
         <v>4237.2428659200004</v>
       </c>
-      <c r="I11" s="236" t="s">
+      <c r="I11" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
     </row>
     <row r="12" spans="1:24" ht="25.5">
       <c r="A12" s="95" t="s">
@@ -10675,13 +10676,13 @@
         <f>'Обязательные отчисления'!H8*15/360</f>
         <v>17501.880345893227</v>
       </c>
-      <c r="I12" s="236" t="s">
+      <c r="I12" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
     </row>
     <row r="13" spans="1:24" ht="25.5">
       <c r="A13" s="95" t="s">
@@ -10728,32 +10729,32 @@
         <v>157</v>
       </c>
       <c r="B14" s="176">
-        <f>SUM(B5:B9)</f>
-        <v>64280.476773333336</v>
+        <f>B9-B5</f>
+        <v>-12523.523226666666</v>
       </c>
       <c r="C14" s="176">
-        <f t="shared" ref="C14:H14" si="4">SUM(C5:C9)</f>
-        <v>60292.776773333331</v>
+        <f t="shared" ref="C14:H14" si="4">C9-C5</f>
+        <v>-16510.223226666669</v>
       </c>
       <c r="D14" s="176">
         <f t="shared" si="4"/>
-        <v>56468.07984888889</v>
+        <v>-18201.586817777781</v>
       </c>
       <c r="E14" s="176">
         <f t="shared" si="4"/>
-        <v>131069.18298186666</v>
+        <v>-36075.150351466669</v>
       </c>
       <c r="F14" s="176">
         <f t="shared" si="4"/>
-        <v>147603.24239374936</v>
+        <v>-46125.837606250672</v>
       </c>
       <c r="G14" s="176">
         <f t="shared" si="4"/>
-        <v>172939.97032978263</v>
+        <v>-55621.442470217386</v>
       </c>
       <c r="H14" s="176">
         <f t="shared" si="4"/>
-        <v>251619.7724651467</v>
+        <v>-78843.476494853487</v>
       </c>
       <c r="I14" s="146">
         <v>44564</v>
@@ -10769,31 +10770,31 @@
       </c>
       <c r="B15" s="176">
         <f>B14</f>
-        <v>64280.476773333336</v>
+        <v>-12523.523226666666</v>
       </c>
       <c r="C15" s="176">
-        <f t="shared" ref="C15:H15" si="5">C14</f>
-        <v>60292.776773333331</v>
+        <f>C14-B14</f>
+        <v>-3986.7000000000025</v>
       </c>
       <c r="D15" s="176">
-        <f t="shared" si="5"/>
-        <v>56468.07984888889</v>
+        <f>D14-C14</f>
+        <v>-1691.3635911111123</v>
       </c>
       <c r="E15" s="176">
-        <f t="shared" si="5"/>
-        <v>131069.18298186666</v>
+        <f>E14-D14</f>
+        <v>-17873.563533688888</v>
       </c>
       <c r="F15" s="176">
-        <f t="shared" si="5"/>
-        <v>147603.24239374936</v>
+        <f>F14-E14</f>
+        <v>-10050.687254784003</v>
       </c>
       <c r="G15" s="176">
-        <f t="shared" si="5"/>
-        <v>172939.97032978263</v>
+        <f>G14-F14</f>
+        <v>-9495.6048639667133</v>
       </c>
       <c r="H15" s="176">
-        <f t="shared" si="5"/>
-        <v>251619.7724651467</v>
+        <f>H14-G14</f>
+        <v>-23222.034024636101</v>
       </c>
       <c r="I15" s="118" t="s">
         <v>159</v>
